--- a/GVI/Lösungen/Kennzahlen.xlsx
+++ b/GVI/Lösungen/Kennzahlen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BKWUVLothDC.k2ac.local\boeven_ste\School_Project\GVI\Lösungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School_Project\GVI\Lösungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{201E185E-1D3A-4A21-99CF-FB55EA6545F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68020B-C8E4-437E-854A-9EBEF55543C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{65D97271-2490-4668-8ACB-02C063182B46}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Mitarbeiterzahl in Gronau</t>
   </si>
@@ -60,27 +60,43 @@
     <t>Durschnittliches Fremdkapital (€)</t>
   </si>
   <si>
-    <t>Produktivität</t>
-  </si>
-  <si>
     <t>Wirtschaftlichkeit</t>
   </si>
   <si>
-    <t>Rentabilität</t>
-  </si>
-  <si>
     <t>Bertrieb A</t>
   </si>
   <si>
     <t>Betrieb B</t>
+  </si>
+  <si>
+    <t>Eigenkapitalrentabilität</t>
+  </si>
+  <si>
+    <t>Gesamtkapitalrentabilität</t>
+  </si>
+  <si>
+    <t>Umsatzrentabilität</t>
+  </si>
+  <si>
+    <t>Geschäftsjahr 01</t>
+  </si>
+  <si>
+    <t>Geschäftsjahr 02</t>
+  </si>
+  <si>
+    <t>Veränderung</t>
+  </si>
+  <si>
+    <t>Stundenproduktivität</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,9 +135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -437,162 +455,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497802EE-C139-40A9-91D9-F7350908AFBC}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <f>B$4/(B$3*B$2)</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="G2">
+        <f>C$4/(C$3*C$2)</f>
+        <v>14.117647058823529</v>
+      </c>
+      <c r="H2">
+        <f>(100/F2*G2)-100</f>
+        <v>24.235294117647072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1650</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-B3</f>
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(B4*B6)/((B4*B8+B9)+(B2*B3*B7)+B10)</f>
+        <v>1.0664770707429789</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(C4*C6)/((C4*C8+C9)+(C2*C3*C7)+C10)</f>
+        <v>1.1076923076923078</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="0">(100/F3*G3)-100</f>
+        <v>3.864615384615405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>240000</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-B4</f>
+        <v>90000</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F4" s="2">
+        <f>(((B$4*B$6)-((B$4*B$8+B$9)+(B$2*B$3*B$7)+B$10))*100)/B$11</f>
+        <v>12.466666666666667</v>
+      </c>
+      <c r="G4" s="2">
+        <f>(((C4*C6)-((C4*C8+C9)+(C2*C3*C7)+C10))*100)/C11</f>
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>124.59893048128342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-B5</f>
+        <v>500000</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1650</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1700</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <f>B$3/(B$2*B$1)</f>
-        <v>11.363636363636363</v>
-      </c>
-      <c r="G2">
-        <f>C$3/(C$2*C$1)</f>
-        <v>14.117647058823529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F5" s="2">
+        <f>((((B$4*B$6)-((B$4*B$8+B$9)+(B$2*B$3*B$7)+B$10))+B10)*100)/(B11+B12)</f>
+        <v>9.6750000000000007</v>
+      </c>
+      <c r="G5" s="2">
+        <f>((((C$4*C$6)-((C$4*C$8+C$9)+(C$2*C$3*C$7)+C$10))+C10)*100)/(C11+C12)</f>
+        <v>14.888888888888889</v>
+      </c>
+      <c r="H5">
+        <f>(100/F5*G5)-100</f>
+        <v>53.890324432960085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-B6</f>
+        <v>-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(((B$4*B$6)-((B$4*B$8+B$9)+(B$2*B$3*B$7)+B$10))*100)/(B$4*B$6)</f>
+        <v>6.2333333333333334</v>
+      </c>
+      <c r="G6" s="2">
+        <f>(((C$4*C$6)-((C$4*C$8+C$9)+(C$2*C$3*C$7)+C$10))*100)/(C$4*C$6)</f>
+        <v>9.7222222222222214</v>
+      </c>
+      <c r="H6">
+        <f>(100/F6*G6)-100</f>
+        <v>55.971479500891263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-B7</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>150000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>240000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-B8</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>479400</v>
+      </c>
+      <c r="C9" s="1">
+        <v>640000</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-B9</f>
+        <v>160600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>250000</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-B10</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>1500000</v>
       </c>
-      <c r="C4" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C11" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>479400</v>
-      </c>
-      <c r="C8" s="1">
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>200000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>2500000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>3000000</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-B12</f>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
